--- a/Dataset/Final.xlsx
+++ b/Dataset/Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12\ML Thesis\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E05439B-3A6F-455A-A92D-F8AED41DE10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F793A79-7521-4970-9B41-A7C5CF8C862B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -778,7 +778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -934,6 +934,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -979,7 +1016,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1004,6 +1041,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1362,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="FW1" workbookViewId="0">
+      <selection activeCell="GD16" sqref="GD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,11 +2570,11 @@
       <c r="GH2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="GI2" s="3" t="s">
+      <c r="GI2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="GJ2" s="3"/>
-      <c r="GK2" s="3"/>
+      <c r="GJ2" s="10"/>
+      <c r="GK2" s="11"/>
     </row>
     <row r="3" spans="1:193" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -22894,7 +22940,7 @@
         <v>140615307</v>
       </c>
       <c r="GK37" s="6">
-        <f t="shared" ref="GK37:GK68" si="1">SUM(EA37:GJ37)</f>
+        <f t="shared" ref="GK37:GK63" si="1">SUM(EA37:GJ37)</f>
         <v>281183078</v>
       </c>
     </row>
@@ -38603,6 +38649,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="GI2:GK2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
